--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -19,35 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
   <si>
-    <t>16янв</t>
-  </si>
-  <si>
-    <t>23янв</t>
-  </si>
-  <si>
-    <t>30янв</t>
-  </si>
-  <si>
-    <t>6фев</t>
-  </si>
-  <si>
-    <t>13фев</t>
-  </si>
-  <si>
-    <t>20фев</t>
-  </si>
-  <si>
     <t>Борисов Никита</t>
   </si>
   <si>
-    <t>Н</t>
-  </si>
-  <si>
     <t>Гуд Станислав</t>
   </si>
   <si>
@@ -130,6 +109,21 @@
   </si>
   <si>
     <t>Яман Зейнеп</t>
+  </si>
+  <si>
+    <t>ДЗ_1</t>
+  </si>
+  <si>
+    <t>ДЗ_2</t>
+  </si>
+  <si>
+    <t>ДЗ_3</t>
+  </si>
+  <si>
+    <t>ДЗ_4</t>
+  </si>
+  <si>
+    <t>ДЗ_5</t>
   </si>
 </sst>
 </file>
@@ -507,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -527,23 +521,21 @@
     </row>
     <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
@@ -558,17 +550,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -576,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -590,15 +578,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -606,15 +592,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -622,25 +606,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -654,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -668,25 +648,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -700,54 +676,40 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
@@ -756,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -770,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -784,47 +746,35 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -838,83 +788,63 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -928,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -942,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -956,7 +886,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -970,14 +900,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -988,7 +914,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1002,7 +928,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1016,11 +942,9 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1028,24 +952,12 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:G2"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,9 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -594,7 +596,9 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -664,8 +668,12 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -762,7 +770,9 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -776,7 +786,9 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -860,8 +872,12 @@
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -874,7 +890,9 @@
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -902,7 +920,9 @@
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -930,8 +950,12 @@
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,9 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -599,7 +601,9 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -789,7 +793,9 @@
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,9 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -566,8 +566,12 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -630,8 +634,12 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -735,7 +743,9 @@
       <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -901,7 +911,9 @@
       <c r="C27" s="2">
         <v>5</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -848,8 +848,12 @@
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -608,8 +608,12 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -686,8 +690,12 @@
       <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
@@ -930,9 +938,15 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -980,8 +994,12 @@
       <c r="D31" s="2">
         <v>5</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -656,8 +656,12 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -644,8 +644,12 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -662,8 +666,12 @@
       <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -809,9 +809,13 @@
       <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
@@ -874,8 +878,12 @@
       <c r="D23" s="2">
         <v>5</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
@@ -987,9 +995,15 @@
         <v>27</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -590,8 +590,12 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
@@ -766,8 +770,12 @@
       <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
@@ -778,10 +786,18 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
@@ -832,8 +848,12 @@
       <c r="D20" s="2">
         <v>5</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
@@ -928,8 +948,12 @@
       <c r="D26" s="2">
         <v>5</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
@@ -1026,7 +1050,9 @@
       <c r="F31" s="2">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -629,9 +629,15 @@
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -991,7 +997,9 @@
       <c r="E28" s="2">
         <v>5</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
@@ -1062,10 +1070,18 @@
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -960,7 +960,9 @@
       <c r="F26" s="2">
         <v>5</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.25">

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -870,8 +870,12 @@
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -884,10 +888,18 @@
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -692,9 +692,15 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -728,10 +734,18 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>ДЗ_5</t>
+  </si>
+  <si>
+    <t>Лаб_1</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -535,7 +538,9 @@
       <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
@@ -572,8 +577,12 @@
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
@@ -960,10 +969,18 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
@@ -1089,7 +1106,9 @@
       <c r="G31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -504,10 +504,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -507,7 +507,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -859,7 +859,9 @@
       <c r="D19" s="2">
         <v>5</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -504,10 +504,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -839,10 +839,18 @@
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
@@ -1062,9 +1070,15 @@
       <c r="C29" s="2">
         <v>5</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Лаб_1</t>
+  </si>
+  <si>
+    <t>Сумма</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,11 +185,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -196,6 +208,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,13 +519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -517,12 +535,12 @@
     <col min="3" max="8" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -541,8 +559,11 @@
       <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -550,7 +571,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -565,8 +586,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>SUM(C4:H4)</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -587,8 +615,15 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" ref="J5:J32" si="0">SUM(C5:H5)</f>
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -609,8 +644,15 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -631,8 +673,15 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -651,8 +700,15 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -673,8 +729,15 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -695,8 +758,15 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -715,8 +785,15 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -737,8 +814,15 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -759,8 +843,15 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -773,8 +864,15 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -787,8 +885,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -809,8 +914,15 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -831,8 +943,15 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -853,8 +972,15 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -875,8 +1001,15 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -897,8 +1030,15 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -915,8 +1055,15 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -937,8 +1084,15 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -959,8 +1113,15 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -973,8 +1134,15 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -995,8 +1163,15 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1019,8 +1194,15 @@
         <v>5</v>
       </c>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1037,8 +1219,15 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1059,8 +1248,15 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1081,8 +1277,15 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1101,8 +1304,15 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1127,8 +1337,15 @@
       <c r="H31" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1149,6 +1366,13 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
@@ -1160,6 +1384,18 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="J4:J32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -154,12 +154,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -198,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -213,6 +219,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,13 +528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -535,12 +544,12 @@
     <col min="3" max="8" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -563,7 +572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -571,18 +580,22 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -593,21 +606,24 @@
       <c r="K4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
         <v>5</v>
       </c>
       <c r="F5" s="2">
@@ -623,20 +639,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
         <v>5</v>
       </c>
       <c r="F6" s="2">
@@ -652,20 +668,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
         <v>5</v>
       </c>
       <c r="F7" s="2">
@@ -681,18 +697,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
         <v>5</v>
       </c>
       <c r="F8" s="2">
@@ -708,20 +726,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
         <v>5</v>
       </c>
       <c r="F9" s="2">
@@ -737,20 +755,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
         <v>5</v>
       </c>
       <c r="F10" s="2">
@@ -766,20 +784,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
         <v>5</v>
       </c>
       <c r="F11" s="2"/>
@@ -793,20 +811,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6">
         <v>5</v>
       </c>
       <c r="F12" s="2">
@@ -822,20 +840,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
         <v>5</v>
       </c>
       <c r="F13" s="2">
@@ -851,16 +869,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -871,17 +895,26 @@
       <c r="K14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -892,21 +925,24 @@
       <c r="K15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
         <v>5</v>
       </c>
       <c r="F16" s="2">
@@ -922,20 +958,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C17" s="6">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
         <v>5</v>
       </c>
       <c r="F17" s="2">
@@ -951,20 +987,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
         <v>5</v>
       </c>
       <c r="F18" s="2">
@@ -980,20 +1016,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6">
         <v>5</v>
       </c>
       <c r="F19" s="2">
@@ -1009,20 +1045,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="6">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6">
         <v>5</v>
       </c>
       <c r="F20" s="2">
@@ -1038,20 +1074,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="C21" s="6">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1063,20 +1101,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C22" s="6">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
         <v>5</v>
       </c>
       <c r="F22" s="2">
@@ -1092,20 +1130,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="C23" s="6">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6">
         <v>5</v>
       </c>
       <c r="F23" s="2">
@@ -1121,16 +1159,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1141,21 +1185,24 @@
       <c r="K24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C25" s="6">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6">
         <v>5</v>
       </c>
       <c r="F25" s="2">
@@ -1171,20 +1218,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6">
         <v>5</v>
       </c>
       <c r="F26" s="2">
@@ -1202,20 +1249,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5</v>
-      </c>
-      <c r="E27" s="2"/>
+      <c r="C27" s="6">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1227,20 +1276,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="C28" s="6">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
         <v>5</v>
       </c>
       <c r="F28" s="2">
@@ -1256,20 +1305,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="C29" s="6">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6">
         <v>5</v>
       </c>
       <c r="F29" s="2">
@@ -1285,18 +1334,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6">
         <v>5</v>
       </c>
       <c r="F30" s="2">
@@ -1312,20 +1363,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C31" s="6">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6">
         <v>5</v>
       </c>
       <c r="F31" s="2">
@@ -1345,20 +1396,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>5</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="C32" s="6">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6">
         <v>5</v>
       </c>
       <c r="F32" s="2">

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -531,10 +531,10 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -587,21 +587,23 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
+      <c r="C4" s="2">
+        <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="J4">
         <f>SUM(C4:H4)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -876,21 +878,23 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1262,15 +1266,17 @@
       <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K27">
         <v>4</v>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -534,7 +534,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1091,15 +1091,17 @@
       <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <v>4</v>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -531,10 +531,10 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -722,7 +722,7 @@
       <c r="H8" s="2"/>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -802,12 +802,14 @@
       <c r="E11" s="6">
         <v>5</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -911,20 +913,22 @@
         <v>12</v>
       </c>
       <c r="C15" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1173,20 +1177,22 @@
         <v>21</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1350,7 +1356,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="6">
         <v>5</v>
@@ -1365,7 +1371,7 @@
       <c r="H30" s="2"/>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K30">
         <v>4</v>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -534,7 +534,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -956,11 +956,13 @@
       <c r="F16" s="2">
         <v>5</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>5</v>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -531,10 +531,10 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -959,10 +959,12 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>5</v>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -534,7 +534,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1284,11 +1284,13 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K27">
         <v>4</v>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Лаб_1</t>
-  </si>
-  <si>
-    <t>Сумма</t>
   </si>
 </sst>
 </file>
@@ -168,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,11 +197,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -222,6 +230,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -544,12 +555,12 @@
     <col min="3" max="8" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -568,11 +579,14 @@
       <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -580,7 +594,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -601,18 +615,8 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="J4">
-        <f>SUM(C4:H4)</f>
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -633,15 +637,8 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5">
-        <f t="shared" ref="J5:J32" si="0">SUM(C5:H5)</f>
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -662,15 +659,14 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -691,15 +687,8 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -720,15 +709,8 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -749,15 +731,8 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -778,15 +753,8 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -807,15 +775,8 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -836,15 +797,8 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -865,15 +819,8 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -894,18 +841,8 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -926,18 +863,8 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -962,15 +889,8 @@
       <c r="H16" s="2">
         <v>5</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -991,15 +911,8 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1020,15 +933,8 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1049,15 +955,8 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1078,15 +977,8 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1107,15 +999,8 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1136,15 +1021,8 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1165,15 +1043,8 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1194,18 +1065,8 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1226,15 +1087,8 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1257,15 +1111,11 @@
         <v>5</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="I26" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1287,16 +1137,17 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>5</v>
+      </c>
+      <c r="J27" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1317,15 +1168,8 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1346,15 +1190,8 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1375,15 +1212,8 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1408,15 +1238,9 @@
       <c r="H31" s="2">
         <v>5</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K31" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1437,13 +1261,6 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K32">
-        <v>5</v>
-      </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
@@ -1455,7 +1272,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="J4:J32">
+  <conditionalFormatting sqref="J4:J5 J7:J32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -545,7 +545,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1190,9 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
+      <c r="I29" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -542,10 +542,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1262,8 +1262,16 @@
       <c r="F32" s="2">
         <v>5</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
       <c r="H32" s="2"/>
+      <c r="I32" s="7">
+        <v>5</v>
+      </c>
+      <c r="J32" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,6 +233,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,10 +545,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -657,8 +660,12 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
       <c r="I6" s="7">
         <v>5</v>
       </c>
@@ -687,6 +694,12 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -795,8 +808,18 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -975,8 +998,18 @@
       <c r="F20" s="2">
         <v>5</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5</v>
+      </c>
+      <c r="J20" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1110,8 +1143,13 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
       <c r="I26" s="7">
+        <v>5</v>
+      </c>
+      <c r="J26" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1166,8 +1204,18 @@
       <c r="F28" s="2">
         <v>5</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1239,6 +1287,12 @@
         <v>5</v>
       </c>
       <c r="H31" s="2">
+        <v>5</v>
+      </c>
+      <c r="I31" s="8">
+        <v>5</v>
+      </c>
+      <c r="J31" s="8">
         <v>5</v>
       </c>
       <c r="K31" s="5"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -545,10 +545,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,9 @@
         <v>5</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
       <c r="I7" s="7">
         <v>5</v>
       </c>
@@ -872,17 +874,17 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2</v>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -932,8 +934,13 @@
       <c r="F17" s="2">
         <v>5</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
       <c r="H17" s="2"/>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -545,10 +545,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -638,8 +638,16 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
       <c r="H5" s="2"/>
+      <c r="I5" s="7">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -548,7 +548,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,9 @@
       <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
       <c r="I5" s="7">
         <v>5</v>
       </c>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -548,7 +548,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1069,8 +1069,18 @@
       <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -143,11 +143,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -165,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -208,6 +203,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -220,13 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -236,6 +234,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,13 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -563,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -579,25 +583,43 @@
       <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -607,7 +629,7 @@
       <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
       <c r="E4" s="2">
@@ -616,23 +638,33 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
         <v>5</v>
       </c>
       <c r="F5" s="2">
@@ -641,30 +673,30 @@
       <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5</v>
-      </c>
-      <c r="J5" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
         <v>5</v>
       </c>
       <c r="F6" s="2">
@@ -673,148 +705,190 @@
       <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5</v>
-      </c>
-      <c r="J6" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
         <v>5</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
         <v>5</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
         <v>5</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
         <v>5</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
         <v>5</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
         <v>5</v>
       </c>
       <c r="F12" s="2">
@@ -823,39 +897,49 @@
       <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5</v>
-      </c>
-      <c r="J12" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
         <v>5</v>
       </c>
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -874,10 +958,20 @@
       <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -896,23 +990,33 @@
       <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
         <v>5</v>
       </c>
       <c r="F16" s="2">
@@ -921,24 +1025,30 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
         <v>5</v>
       </c>
       <c r="F17" s="2">
@@ -947,69 +1057,94 @@
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="5">
+        <v>5</v>
+      </c>
       <c r="I17" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6">
-        <v>5</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
         <v>5</v>
       </c>
       <c r="F18" s="2">
         <v>5</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6">
-        <v>5</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
         <v>5</v>
       </c>
       <c r="F20" s="2">
@@ -1018,27 +1153,27 @@
       <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5</v>
-      </c>
-      <c r="J20" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
         <v>5</v>
       </c>
       <c r="E21" s="2">
@@ -1047,23 +1182,33 @@
       <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
         <v>5</v>
       </c>
       <c r="F22" s="2">
@@ -1072,96 +1217,126 @@
       <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>5</v>
-      </c>
-      <c r="J22" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H22" s="5">
+        <v>5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="6">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
         <v>5</v>
       </c>
       <c r="F23" s="2">
         <v>5</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
         <v>2</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6">
-        <v>5</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
         <v>5</v>
       </c>
       <c r="F25" s="2">
         <v>5</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="6">
-        <v>5</v>
-      </c>
-      <c r="D26" s="6">
-        <v>5</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
         <v>5</v>
       </c>
       <c r="F26" s="2">
@@ -1170,27 +1345,27 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="2">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5</v>
-      </c>
-      <c r="J26" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6">
-        <v>5</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4">
         <v>5</v>
       </c>
       <c r="E27" s="2">
@@ -1202,30 +1377,30 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="H27" s="2">
-        <v>5</v>
-      </c>
-      <c r="I27" s="7">
-        <v>5</v>
-      </c>
-      <c r="J27" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H27" s="5">
+        <v>5</v>
+      </c>
+      <c r="I27" s="5">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="6">
-        <v>5</v>
-      </c>
-      <c r="D28" s="6">
-        <v>5</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4">
         <v>5</v>
       </c>
       <c r="F28" s="2">
@@ -1234,77 +1409,94 @@
       <c r="G28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="2">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5</v>
-      </c>
-      <c r="J28" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H28" s="5">
+        <v>5</v>
+      </c>
+      <c r="I28" s="5">
+        <v>5</v>
+      </c>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="6">
-        <v>5</v>
-      </c>
-      <c r="D29" s="6">
-        <v>5</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="F29" s="2">
         <v>5</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>5</v>
+      </c>
       <c r="I29" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6">
-        <v>5</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4">
         <v>5</v>
       </c>
       <c r="F30" s="2">
         <v>5</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="6">
-        <v>5</v>
-      </c>
-      <c r="D31" s="6">
-        <v>5</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4">
         <v>5</v>
       </c>
       <c r="F31" s="2">
@@ -1313,31 +1505,30 @@
       <c r="G31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="2">
-        <v>5</v>
-      </c>
-      <c r="I31" s="8">
-        <v>5</v>
-      </c>
-      <c r="J31" s="8">
-        <v>5</v>
-      </c>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H31" s="6">
+        <v>5</v>
+      </c>
+      <c r="I31" s="6">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="6">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6">
-        <v>5</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="C32" s="4">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
         <v>5</v>
       </c>
       <c r="F32" s="2">
@@ -1346,25 +1537,812 @@
       <c r="G32" s="2">
         <v>5</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="7">
-        <v>5</v>
-      </c>
-      <c r="J32" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
+      <c r="H32" s="5">
+        <v>5</v>
+      </c>
+      <c r="I32" s="5">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="5">
+        <v>5</v>
+      </c>
+      <c r="I33" s="5">
+        <v>5</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="5">
+        <v>5</v>
+      </c>
+      <c r="I34" s="5">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="4">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="5">
+        <v>5</v>
+      </c>
+      <c r="I35" s="5">
+        <v>5</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="5">
+        <v>5</v>
+      </c>
+      <c r="I36" s="5">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="5">
+        <v>5</v>
+      </c>
+      <c r="I37" s="5">
+        <v>5</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>29</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="4">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="5">
+        <v>5</v>
+      </c>
+      <c r="I38" s="5">
+        <v>5</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="4">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="5">
+        <v>5</v>
+      </c>
+      <c r="I39" s="5">
+        <v>5</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>29</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="4">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="5">
+        <v>5</v>
+      </c>
+      <c r="I40" s="5">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="4">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="5">
+        <v>5</v>
+      </c>
+      <c r="I41" s="5">
+        <v>5</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="5">
+        <v>5</v>
+      </c>
+      <c r="I42" s="5">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="4">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5</v>
+      </c>
+      <c r="H43" s="5">
+        <v>5</v>
+      </c>
+      <c r="I43" s="5">
+        <v>5</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="4">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5</v>
+      </c>
+      <c r="H44" s="5">
+        <v>5</v>
+      </c>
+      <c r="I44" s="5">
+        <v>5</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>5</v>
+      </c>
+      <c r="E45" s="4">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+      <c r="H45" s="5">
+        <v>5</v>
+      </c>
+      <c r="I45" s="5">
+        <v>5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="5">
+        <v>5</v>
+      </c>
+      <c r="I46" s="5">
+        <v>5</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="4">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4">
+        <v>5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>5</v>
+      </c>
+      <c r="H47" s="5">
+        <v>5</v>
+      </c>
+      <c r="I47" s="5">
+        <v>5</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>5</v>
+      </c>
+      <c r="H48" s="5">
+        <v>5</v>
+      </c>
+      <c r="I48" s="5">
+        <v>5</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>29</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="4">
+        <v>5</v>
+      </c>
+      <c r="D49" s="4">
+        <v>5</v>
+      </c>
+      <c r="E49" s="4">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5</v>
+      </c>
+      <c r="H49" s="5">
+        <v>5</v>
+      </c>
+      <c r="I49" s="5">
+        <v>5</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>29</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="4">
+        <v>5</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5</v>
+      </c>
+      <c r="E50" s="4">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5</v>
+      </c>
+      <c r="H50" s="5">
+        <v>5</v>
+      </c>
+      <c r="I50" s="5">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="J4:J5 J7:J32">
+  <conditionalFormatting sqref="I4:I5 I7:I32">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/_2ИСИП-822_ТерВер.xlsx
+++ b/_2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Лаб_1</t>
+  </si>
+  <si>
+    <t>ДЗ_6</t>
+  </si>
+  <si>
+    <t>ДЗ_7</t>
+  </si>
+  <si>
+    <t>Сумма</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,25 +230,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,28 +555,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="8" width="5.1796875" customWidth="1"/>
+    <col min="3" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -583,17 +592,20 @@
       <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <v>7</v>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -609,49 +621,56 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>SUM(C4:J4)</f>
+        <v>20</v>
+      </c>
+      <c r="M4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -667,10 +686,10 @@
       <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
         <v>5</v>
       </c>
       <c r="H5" s="5">
@@ -679,11 +698,18 @@
       <c r="I5" s="5">
         <v>5</v>
       </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L50" si="0">SUM(C5:J5)</f>
+        <v>40</v>
+      </c>
+      <c r="M5" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -699,10 +725,10 @@
       <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
         <v>5</v>
       </c>
       <c r="H6" s="5">
@@ -711,11 +737,18 @@
       <c r="I6" s="5">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -731,11 +764,11 @@
       <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <v>5</v>
@@ -743,11 +776,18 @@
       <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -755,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -763,23 +803,30 @@
       <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -795,23 +842,30 @@
       <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
       </c>
       <c r="H9" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -827,23 +881,30 @@
       <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
       </c>
       <c r="H10" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -859,23 +920,30 @@
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -891,10 +959,10 @@
       <c r="E12" s="4">
         <v>5</v>
       </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
         <v>5</v>
       </c>
       <c r="H12" s="5">
@@ -903,11 +971,18 @@
       <c r="I12" s="5">
         <v>5</v>
       </c>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -923,87 +998,108 @@
       <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M15" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1019,23 +1115,30 @@
       <c r="E16" s="4">
         <v>5</v>
       </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
         <v>5</v>
       </c>
       <c r="H16" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M16" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1051,23 +1154,30 @@
       <c r="E17" s="4">
         <v>5</v>
       </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
         <v>5</v>
       </c>
       <c r="H17" s="5">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>2</v>
-      </c>
-      <c r="J17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M17" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1083,23 +1193,30 @@
       <c r="E18" s="4">
         <v>5</v>
       </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
       </c>
       <c r="H18" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>2</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1115,23 +1232,30 @@
       <c r="E19" s="4">
         <v>5</v>
       </c>
-      <c r="F19" s="2">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2</v>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M19" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1147,10 +1271,10 @@
       <c r="E20" s="4">
         <v>5</v>
       </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
         <v>5</v>
       </c>
       <c r="H20" s="5">
@@ -1159,11 +1283,18 @@
       <c r="I20" s="5">
         <v>5</v>
       </c>
-      <c r="J20" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M20" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1176,26 +1307,33 @@
       <c r="D21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M21" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1211,10 +1349,10 @@
       <c r="E22" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
         <v>5</v>
       </c>
       <c r="H22" s="5">
@@ -1223,11 +1361,18 @@
       <c r="I22" s="5">
         <v>5</v>
       </c>
-      <c r="J22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M22" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1243,23 +1388,30 @@
       <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="2">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
       </c>
       <c r="H23" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M23" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1267,31 +1419,38 @@
         <v>21</v>
       </c>
       <c r="C24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
       </c>
       <c r="H24" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>2</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1307,23 +1466,30 @@
       <c r="E25" s="4">
         <v>5</v>
       </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
       </c>
       <c r="H25" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>2</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M25" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1339,10 +1505,10 @@
       <c r="E26" s="4">
         <v>5</v>
       </c>
-      <c r="F26" s="2">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
         <v>5</v>
       </c>
       <c r="H26" s="5">
@@ -1351,11 +1517,18 @@
       <c r="I26" s="5">
         <v>5</v>
       </c>
-      <c r="J26" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M26" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1368,13 +1541,13 @@
       <c r="D27" s="4">
         <v>5</v>
       </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4">
         <v>5</v>
       </c>
       <c r="H27" s="5">
@@ -1383,11 +1556,18 @@
       <c r="I27" s="5">
         <v>5</v>
       </c>
-      <c r="J27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M27" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1403,10 +1583,10 @@
       <c r="E28" s="4">
         <v>5</v>
       </c>
-      <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="4">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
         <v>5</v>
       </c>
       <c r="H28" s="5">
@@ -1415,11 +1595,18 @@
       <c r="I28" s="5">
         <v>5</v>
       </c>
-      <c r="J28" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M28" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1435,23 +1622,30 @@
       <c r="E29" s="4">
         <v>5</v>
       </c>
-      <c r="F29" s="2">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2</v>
+      <c r="F29" s="4">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
       </c>
       <c r="H29" s="5">
         <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>2</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M29" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1459,7 +1653,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="4">
         <v>5</v>
@@ -1467,23 +1661,30 @@
       <c r="E30" s="4">
         <v>5</v>
       </c>
-      <c r="F30" s="2">
-        <v>5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>2</v>
+      <c r="F30" s="4">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
       </c>
       <c r="H30" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M30" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1499,10 +1700,10 @@
       <c r="E31" s="4">
         <v>5</v>
       </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
         <v>5</v>
       </c>
       <c r="H31" s="6">
@@ -1511,11 +1712,18 @@
       <c r="I31" s="6">
         <v>5</v>
       </c>
-      <c r="J31" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="4">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M31" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1531,10 +1739,10 @@
       <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32" s="2">
-        <v>5</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4">
         <v>5</v>
       </c>
       <c r="H32" s="5">
@@ -1543,11 +1751,18 @@
       <c r="I32" s="5">
         <v>5</v>
       </c>
-      <c r="J32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M32" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1563,10 +1778,10 @@
       <c r="E33" s="4">
         <v>5</v>
       </c>
-      <c r="F33" s="2">
-        <v>5</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="4">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4">
         <v>5</v>
       </c>
       <c r="H33" s="5">
@@ -1575,11 +1790,18 @@
       <c r="I33" s="5">
         <v>5</v>
       </c>
-      <c r="J33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -1595,10 +1817,10 @@
       <c r="E34" s="4">
         <v>5</v>
       </c>
-      <c r="F34" s="2">
-        <v>5</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="4">
+        <v>5</v>
+      </c>
+      <c r="G34" s="4">
         <v>5</v>
       </c>
       <c r="H34" s="5">
@@ -1607,11 +1829,18 @@
       <c r="I34" s="5">
         <v>5</v>
       </c>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M34" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -1627,10 +1856,10 @@
       <c r="E35" s="4">
         <v>5</v>
       </c>
-      <c r="F35" s="2">
-        <v>5</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+      <c r="G35" s="4">
         <v>5</v>
       </c>
       <c r="H35" s="5">
@@ -1639,11 +1868,18 @@
       <c r="I35" s="5">
         <v>5</v>
       </c>
-      <c r="J35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M35" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>29</v>
       </c>
@@ -1659,10 +1895,10 @@
       <c r="E36" s="4">
         <v>5</v>
       </c>
-      <c r="F36" s="2">
-        <v>5</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="4">
+        <v>5</v>
+      </c>
+      <c r="G36" s="4">
         <v>5</v>
       </c>
       <c r="H36" s="5">
@@ -1671,11 +1907,18 @@
       <c r="I36" s="5">
         <v>5</v>
       </c>
-      <c r="J36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M36" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -1691,10 +1934,10 @@
       <c r="E37" s="4">
         <v>5</v>
       </c>
-      <c r="F37" s="2">
-        <v>5</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="4">
         <v>5</v>
       </c>
       <c r="H37" s="5">
@@ -1703,11 +1946,18 @@
       <c r="I37" s="5">
         <v>5</v>
       </c>
-      <c r="J37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M37" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>29</v>
       </c>
@@ -1723,10 +1973,10 @@
       <c r="E38" s="4">
         <v>5</v>
       </c>
-      <c r="F38" s="2">
-        <v>5</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="4">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4">
         <v>5</v>
       </c>
       <c r="H38" s="5">
@@ -1735,11 +1985,18 @@
       <c r="I38" s="5">
         <v>5</v>
       </c>
-      <c r="J38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M38" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>29</v>
       </c>
@@ -1755,10 +2012,10 @@
       <c r="E39" s="4">
         <v>5</v>
       </c>
-      <c r="F39" s="2">
-        <v>5</v>
-      </c>
-      <c r="G39" s="2">
+      <c r="F39" s="4">
+        <v>5</v>
+      </c>
+      <c r="G39" s="4">
         <v>5</v>
       </c>
       <c r="H39" s="5">
@@ -1767,11 +2024,18 @@
       <c r="I39" s="5">
         <v>5</v>
       </c>
-      <c r="J39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M39" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>29</v>
       </c>
@@ -1787,10 +2051,10 @@
       <c r="E40" s="4">
         <v>5</v>
       </c>
-      <c r="F40" s="2">
-        <v>5</v>
-      </c>
-      <c r="G40" s="2">
+      <c r="F40" s="4">
+        <v>5</v>
+      </c>
+      <c r="G40" s="4">
         <v>5</v>
       </c>
       <c r="H40" s="5">
@@ -1799,11 +2063,18 @@
       <c r="I40" s="5">
         <v>5</v>
       </c>
-      <c r="J40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M40" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>29</v>
       </c>
@@ -1819,10 +2090,10 @@
       <c r="E41" s="4">
         <v>5</v>
       </c>
-      <c r="F41" s="2">
-        <v>5</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="F41" s="4">
+        <v>5</v>
+      </c>
+      <c r="G41" s="4">
         <v>5</v>
       </c>
       <c r="H41" s="5">
@@ -1831,11 +2102,18 @@
       <c r="I41" s="5">
         <v>5</v>
       </c>
-      <c r="J41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M41" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>29</v>
       </c>
@@ -1851,10 +2129,10 @@
       <c r="E42" s="4">
         <v>5</v>
       </c>
-      <c r="F42" s="2">
-        <v>5</v>
-      </c>
-      <c r="G42" s="2">
+      <c r="F42" s="4">
+        <v>5</v>
+      </c>
+      <c r="G42" s="4">
         <v>5</v>
       </c>
       <c r="H42" s="5">
@@ -1863,11 +2141,18 @@
       <c r="I42" s="5">
         <v>5</v>
       </c>
-      <c r="J42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M42" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>29</v>
       </c>
@@ -1883,10 +2168,10 @@
       <c r="E43" s="4">
         <v>5</v>
       </c>
-      <c r="F43" s="2">
-        <v>5</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="F43" s="4">
+        <v>5</v>
+      </c>
+      <c r="G43" s="4">
         <v>5</v>
       </c>
       <c r="H43" s="5">
@@ -1895,11 +2180,18 @@
       <c r="I43" s="5">
         <v>5</v>
       </c>
-      <c r="J43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M43" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>29</v>
       </c>
@@ -1915,10 +2207,10 @@
       <c r="E44" s="4">
         <v>5</v>
       </c>
-      <c r="F44" s="2">
-        <v>5</v>
-      </c>
-      <c r="G44" s="2">
+      <c r="F44" s="4">
+        <v>5</v>
+      </c>
+      <c r="G44" s="4">
         <v>5</v>
       </c>
       <c r="H44" s="5">
@@ -1927,11 +2219,18 @@
       <c r="I44" s="5">
         <v>5</v>
       </c>
-      <c r="J44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M44" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>29</v>
       </c>
@@ -1947,10 +2246,10 @@
       <c r="E45" s="4">
         <v>5</v>
       </c>
-      <c r="F45" s="2">
-        <v>5</v>
-      </c>
-      <c r="G45" s="2">
+      <c r="F45" s="4">
+        <v>5</v>
+      </c>
+      <c r="G45" s="4">
         <v>5</v>
       </c>
       <c r="H45" s="5">
@@ -1959,11 +2258,18 @@
       <c r="I45" s="5">
         <v>5</v>
       </c>
-      <c r="J45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M45" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>29</v>
       </c>
@@ -1979,10 +2285,10 @@
       <c r="E46" s="4">
         <v>5</v>
       </c>
-      <c r="F46" s="2">
-        <v>5</v>
-      </c>
-      <c r="G46" s="2">
+      <c r="F46" s="4">
+        <v>5</v>
+      </c>
+      <c r="G46" s="4">
         <v>5</v>
       </c>
       <c r="H46" s="5">
@@ -1991,11 +2297,18 @@
       <c r="I46" s="5">
         <v>5</v>
       </c>
-      <c r="J46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M46" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>29</v>
       </c>
@@ -2011,10 +2324,10 @@
       <c r="E47" s="4">
         <v>5</v>
       </c>
-      <c r="F47" s="2">
-        <v>5</v>
-      </c>
-      <c r="G47" s="2">
+      <c r="F47" s="4">
+        <v>5</v>
+      </c>
+      <c r="G47" s="4">
         <v>5</v>
       </c>
       <c r="H47" s="5">
@@ -2023,11 +2336,18 @@
       <c r="I47" s="5">
         <v>5</v>
       </c>
-      <c r="J47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M47" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>29</v>
       </c>
@@ -2043,10 +2363,10 @@
       <c r="E48" s="4">
         <v>5</v>
       </c>
-      <c r="F48" s="2">
-        <v>5</v>
-      </c>
-      <c r="G48" s="2">
+      <c r="F48" s="4">
+        <v>5</v>
+      </c>
+      <c r="G48" s="4">
         <v>5</v>
       </c>
       <c r="H48" s="5">
@@ -2055,11 +2375,18 @@
       <c r="I48" s="5">
         <v>5</v>
       </c>
-      <c r="J48" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M48" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>29</v>
       </c>
@@ -2075,10 +2402,10 @@
       <c r="E49" s="4">
         <v>5</v>
       </c>
-      <c r="F49" s="2">
-        <v>5</v>
-      </c>
-      <c r="G49" s="2">
+      <c r="F49" s="4">
+        <v>5</v>
+      </c>
+      <c r="G49" s="4">
         <v>5</v>
       </c>
       <c r="H49" s="5">
@@ -2087,11 +2414,18 @@
       <c r="I49" s="5">
         <v>5</v>
       </c>
-      <c r="J49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M49" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>29</v>
       </c>
@@ -2107,10 +2441,10 @@
       <c r="E50" s="4">
         <v>5</v>
       </c>
-      <c r="F50" s="2">
-        <v>5</v>
-      </c>
-      <c r="G50" s="2">
+      <c r="F50" s="4">
+        <v>5</v>
+      </c>
+      <c r="G50" s="4">
         <v>5</v>
       </c>
       <c r="H50" s="5">
@@ -2119,218 +2453,23 @@
       <c r="I50" s="5">
         <v>5</v>
       </c>
-      <c r="J50" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M50" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="I4:I5 I7:I32">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="C4:J50 M4:M51">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2342,7 +2481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="L4:L50">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
